--- a/dtpu_configurations/only_integer32/100mhz/mxu_6x6/power.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_6x6/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.041446272283792496</v>
+        <v>0.058303095400333405</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.018003802746534348</v>
+        <v>0.0218095313757658</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.013800603337585926</v>
+        <v>0.016170639544725418</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.010999810881912708</v>
+        <v>0.01128639280796051</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>5.51105295016896E-5</v>
+        <v>0.00307407951913774</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0034857499413192272</v>
+        <v>0.004852407146245241</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0019400001037865877</v>
@@ -199,10 +199,10 @@
         <v>1.2619483470916748</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1272750049829483</v>
+        <v>0.12801940739154816</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4789676666259766</v>
+        <v>1.5074169635772705</v>
       </c>
     </row>
   </sheetData>
